--- a/vendor/mysql_audo_init/interface_field_rel.xlsx
+++ b/vendor/mysql_audo_init/interface_field_rel.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="14880" windowHeight="12165"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="14880" windowHeight="12168"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="67">
   <si>
     <t>数据源标识</t>
   </si>
@@ -184,9 +184,6 @@
     <t>longitudu</t>
   </si>
   <si>
-    <t>license_plate</t>
-  </si>
-  <si>
     <t>multi_loan_91</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,10 +232,6 @@
   </si>
   <si>
     <t>经度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车牌号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -257,8 +250,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +367,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,7 +421,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,9 +453,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,6 +488,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -661,24 +664,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.125" customWidth="1"/>
-    <col min="2" max="2" width="35.375" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -690,7 +693,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -704,7 +707,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -715,10 +718,10 @@
         <v>41</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -729,10 +732,10 @@
         <v>42</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -743,10 +746,10 @@
         <v>39</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -757,10 +760,10 @@
         <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -774,7 +777,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -785,10 +788,10 @@
         <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -799,10 +802,10 @@
         <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -813,10 +816,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -827,10 +830,10 @@
         <v>41</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -841,10 +844,10 @@
         <v>44</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -855,10 +858,10 @@
         <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -869,10 +872,10 @@
         <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -883,10 +886,10 @@
         <v>47</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -897,10 +900,10 @@
         <v>44</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -911,10 +914,10 @@
         <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -925,10 +928,10 @@
         <v>46</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -939,10 +942,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -956,7 +959,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1">
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -970,7 +973,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1">
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -984,7 +987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1">
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -995,10 +998,10 @@
         <v>41</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1009,10 +1012,10 @@
         <v>44</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1">
+    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1037,10 +1040,10 @@
         <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1051,10 +1054,10 @@
         <v>44</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1065,10 +1068,10 @@
         <v>39</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1079,24 +1082,24 @@
         <v>41</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="18" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1107,10 +1110,10 @@
         <v>48</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1121,10 +1124,10 @@
         <v>47</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="18" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1135,10 +1138,10 @@
         <v>44</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="18" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1148,7 +1151,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" ht="18" customHeight="1">
+    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -1159,10 +1162,10 @@
         <v>49</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="18" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1170,13 +1173,13 @@
         <v>21</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="18" customHeight="1">
+    </row>
+    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -1187,10 +1190,10 @@
         <v>50</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1204,7 +1207,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18" customHeight="1">
+    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -1215,10 +1218,10 @@
         <v>46</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="18" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1229,10 +1232,10 @@
         <v>44</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="18" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -1246,7 +1249,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18" customHeight="1">
+    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1257,10 +1260,10 @@
         <v>41</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="18" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -1271,10 +1274,10 @@
         <v>44</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="18" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18" customHeight="1">
+    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -1299,10 +1302,10 @@
         <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="18" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1313,10 +1316,10 @@
         <v>44</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="18" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -1330,7 +1333,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18" customHeight="1">
+    <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -1341,10 +1344,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="18" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -1355,10 +1358,10 @@
         <v>44</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="18" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -1372,7 +1375,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="18" customHeight="1">
+    <row r="51" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -1383,10 +1386,10 @@
         <v>41</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="18" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1397,10 +1400,10 @@
         <v>44</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="18" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="18" customHeight="1">
+    <row r="54" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="18" customHeight="1">
+    <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -1439,10 +1442,10 @@
         <v>41</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="18" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -1453,66 +1456,66 @@
         <v>44</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="18" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="18" customHeight="1">
+      <c r="C57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>31</v>
+      <c r="B58" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="18" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="18" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="18" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -1520,94 +1523,122 @@
         <v>32</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="18" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="18" customHeight="1">
+      <c r="B62" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="18" customHeight="1">
+      <c r="B63" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="18" customHeight="1">
+      <c r="B64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="18" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="18" customHeight="1">
+      <c r="B66" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>67</v>
+      <c r="C69" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1618,12 +1649,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1632,12 +1663,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
